--- a/data/trans_dic/P1402-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1402-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.08245464246703595</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09706146976661362</v>
+        <v>0.09706146976661358</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05887515601975725</v>
@@ -697,7 +697,7 @@
         <v>0.08948722125306614</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09892563927855272</v>
+        <v>0.09892563927855273</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04243123264558028</v>
+        <v>0.04204625704134495</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05040303166512491</v>
+        <v>0.05079897319359496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0771396879070277</v>
+        <v>0.07498575568439095</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08343176658066592</v>
+        <v>0.08154478436401848</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04281417024556597</v>
+        <v>0.04406715390133572</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05216673131855841</v>
+        <v>0.0527761993977186</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06283912976350983</v>
+        <v>0.06388583617588664</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08364087401572042</v>
+        <v>0.08299265929751326</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0481703796272397</v>
+        <v>0.04773087819175446</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05707580334650235</v>
+        <v>0.05787441758145868</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07556373773395686</v>
+        <v>0.07400008887669461</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0872032977660523</v>
+        <v>0.08684774778886603</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07655200300501708</v>
+        <v>0.07805131674499324</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09223284652738437</v>
+        <v>0.09251860483993493</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1233677390136961</v>
+        <v>0.1202426111295419</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.120973647613097</v>
+        <v>0.1256977598910842</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07901666119267782</v>
+        <v>0.08046814624424248</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0912206470351363</v>
+        <v>0.09366259011492183</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1104833915072706</v>
+        <v>0.1079118392378035</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1139886210675645</v>
+        <v>0.1136048094495886</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0729285247241263</v>
+        <v>0.07277454170054427</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08393706890247249</v>
+        <v>0.08524893133638502</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1060750299004092</v>
+        <v>0.1054746061040577</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.113155887054602</v>
+        <v>0.112369522965702</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.08156103204993584</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07974869981021926</v>
+        <v>0.07974869981021925</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.07334571075807969</v>
@@ -833,7 +833,7 @@
         <v>0.08267016483424963</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08409295997552693</v>
+        <v>0.08409295997552695</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05147631050283874</v>
+        <v>0.05178925866157674</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05111441233397818</v>
+        <v>0.04991424248864378</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06728230281896161</v>
+        <v>0.06657654815525431</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07257942414281272</v>
+        <v>0.07455093086165014</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06187829830590177</v>
+        <v>0.06299126664681963</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06373342424693905</v>
+        <v>0.06442040530678927</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0636783992234622</v>
+        <v>0.06389055258581633</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0683918623661575</v>
+        <v>0.06831145213860951</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06098300450718439</v>
+        <v>0.06240792656465954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06194486511129622</v>
+        <v>0.06158424510685106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07113819250038507</v>
+        <v>0.07080138123349342</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07462472462738749</v>
+        <v>0.07419568171672626</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0845602214038572</v>
+        <v>0.08413523148756737</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08217482087040726</v>
+        <v>0.082963021010316</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1012462627843205</v>
+        <v>0.1027760009606624</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1066296805402221</v>
+        <v>0.1080632892613209</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09941581119578242</v>
+        <v>0.09881328833444591</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09976198222775821</v>
+        <v>0.09844735952824787</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09983902177539093</v>
+        <v>0.1004840655155066</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09332733450005513</v>
+        <v>0.09302053298464076</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08640587936702884</v>
+        <v>0.08629124190446504</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0852973774064848</v>
+        <v>0.08489925679146164</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09467104552560414</v>
+        <v>0.09631631229738143</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09448217579757361</v>
+        <v>0.0949287317455112</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.08878759053245494</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06403104099444802</v>
+        <v>0.06403104099444804</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05515733506862894</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02983499951465725</v>
+        <v>0.03097498831132587</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05361933877837043</v>
+        <v>0.05275081594269657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0773322477261642</v>
+        <v>0.07742477004853977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07096840076702489</v>
+        <v>0.07005978559371595</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04909234755247947</v>
+        <v>0.04930149358164947</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06544787566055578</v>
+        <v>0.06722241267177657</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06971343281224411</v>
+        <v>0.07028392863053817</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05179869749676</v>
+        <v>0.05114752197523439</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04437410802960583</v>
+        <v>0.04414219201511218</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06558507806628323</v>
+        <v>0.06594068876947012</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07908501509587948</v>
+        <v>0.07926403838499096</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06521623879931947</v>
+        <v>0.06516710191809257</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06110849139580501</v>
+        <v>0.06348141718298192</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09703167248327604</v>
+        <v>0.09391478580534091</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1251324286906625</v>
+        <v>0.1232712611565294</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.110253852175715</v>
+        <v>0.1077869181450815</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0869581628182271</v>
+        <v>0.09001220692806951</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1056596272774377</v>
+        <v>0.1070135601468652</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1124613432979696</v>
+        <v>0.111543011942892</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07793429266826739</v>
+        <v>0.07857824248393597</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06848968383505874</v>
+        <v>0.06871869080885684</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09482683431765258</v>
+        <v>0.09322940144734861</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1095014885558132</v>
+        <v>0.1093704271106819</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08996553597910206</v>
+        <v>0.08830425637268331</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.07767478081105475</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09613338396829176</v>
+        <v>0.09613338396829174</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06343924043065685</v>
@@ -1093,7 +1093,7 @@
         <v>0.08329344054312481</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07468209330290503</v>
+        <v>0.07468209330290498</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05887106121695618</v>
@@ -1105,7 +1105,7 @@
         <v>0.08063470758444953</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08474200678444284</v>
+        <v>0.08474200678444282</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04187780996186468</v>
+        <v>0.0412143306026617</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07397325968012763</v>
+        <v>0.07546445238068486</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06262117617425719</v>
+        <v>0.06233584101174169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08136618204097092</v>
+        <v>0.08146927614227879</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.048326704111924</v>
+        <v>0.04981366767138756</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08532812837600362</v>
+        <v>0.08542947109126235</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0658009466274069</v>
+        <v>0.06601224536305215</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0634363995998873</v>
+        <v>0.0640995124804192</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04925163668598688</v>
+        <v>0.05040994125229789</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08524729299190924</v>
+        <v>0.08619855273616722</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06824217256971077</v>
+        <v>0.06906293827887862</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07523416493034618</v>
+        <v>0.07469483257975802</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06877294889836574</v>
+        <v>0.06859969437387992</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1133027334272047</v>
+        <v>0.1153151264452449</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09742770093775467</v>
+        <v>0.09528190489465334</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.115161878854507</v>
+        <v>0.1150855087362973</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07998156325314304</v>
+        <v>0.0827429060283338</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1239488099529672</v>
+        <v>0.123477511849391</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1033881249889979</v>
+        <v>0.1031726670414092</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08663205990461095</v>
+        <v>0.08748046724312937</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06966502589906348</v>
+        <v>0.07019413177511422</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1135972664124124</v>
+        <v>0.1144057443054993</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09288567210198419</v>
+        <v>0.09346909114251345</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09637933018742376</v>
+        <v>0.09583670209472135</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.08384128023455691</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.07821262707958804</v>
+        <v>0.07821262707958802</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06230946674902334</v>
@@ -1241,7 +1241,7 @@
         <v>0.08573340175995259</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08544409361179556</v>
+        <v>0.08544409361179553</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06670623868613132</v>
+        <v>0.06592744942144681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07872848379117263</v>
+        <v>0.07707380203792968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08335161893581522</v>
+        <v>0.08434513625476105</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07739449854276674</v>
+        <v>0.07762392035832197</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07343076164983572</v>
+        <v>0.07431539782587862</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07109691161738906</v>
+        <v>0.07140266166987179</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0745134140554085</v>
+        <v>0.07478362567588512</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07890582724480741</v>
+        <v>0.07856558171309563</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08029176399350695</v>
+        <v>0.08016400604683412</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08537780398129409</v>
+        <v>0.08489795656720989</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09722985943549743</v>
+        <v>0.09681875621243795</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.102008394792297</v>
+        <v>0.1028045011550224</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09576642422627944</v>
+        <v>0.09658572317982968</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09389707057033511</v>
+        <v>0.09421769906479904</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0845652904753893</v>
+        <v>0.08486219714060246</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08754794318881222</v>
+        <v>0.08769236859867235</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0926550157400312</v>
+        <v>0.09308475615842204</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09189800136500159</v>
+        <v>0.09142978568033808</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>29448</v>
+        <v>29181</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35457</v>
+        <v>35736</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>52054</v>
+        <v>50600</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>57492</v>
+        <v>56192</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>29471</v>
+        <v>30334</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>36363</v>
+        <v>36788</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>42281</v>
+        <v>42985</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>61286</v>
+        <v>60811</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>66589</v>
+        <v>65981</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>79936</v>
+        <v>81054</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>101833</v>
+        <v>99725</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>123987</v>
+        <v>123482</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>53128</v>
+        <v>54169</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>64883</v>
+        <v>65084</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>83249</v>
+        <v>81140</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>83362</v>
+        <v>86618</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>54391</v>
+        <v>55390</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>63585</v>
+        <v>65288</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>74338</v>
+        <v>72607</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>83522</v>
+        <v>83241</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>100814</v>
+        <v>100601</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>117555</v>
+        <v>119393</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>142951</v>
+        <v>142142</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>160887</v>
+        <v>159769</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>49510</v>
+        <v>49811</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>52032</v>
+        <v>50810</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>68792</v>
+        <v>68070</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>76057</v>
+        <v>78123</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>59923</v>
+        <v>61000</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>65580</v>
+        <v>66287</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>66411</v>
+        <v>66632</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>73145</v>
+        <v>73059</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>117709</v>
+        <v>120459</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>126796</v>
+        <v>126058</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>146925</v>
+        <v>146229</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>158012</v>
+        <v>157103</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>81330</v>
+        <v>80921</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>83650</v>
+        <v>84452</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>103517</v>
+        <v>105081</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>111739</v>
+        <v>113241</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>96274</v>
+        <v>95690</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>102652</v>
+        <v>101300</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>104123</v>
+        <v>104796</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>99814</v>
+        <v>99486</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>166780</v>
+        <v>166559</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>174597</v>
+        <v>173782</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>195528</v>
+        <v>198926</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>200058</v>
+        <v>201004</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20243</v>
+        <v>21017</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>40623</v>
+        <v>39965</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>58738</v>
+        <v>58808</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>56861</v>
+        <v>56133</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33571</v>
+        <v>33714</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>50864</v>
+        <v>52244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>54726</v>
+        <v>55174</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>42038</v>
+        <v>41510</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>60453</v>
+        <v>60137</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>100660</v>
+        <v>101206</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>122152</v>
+        <v>122428</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>105180</v>
+        <v>105101</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41463</v>
+        <v>43073</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>73513</v>
+        <v>71152</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>95045</v>
+        <v>93631</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>88337</v>
+        <v>86361</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>59466</v>
+        <v>61554</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>82116</v>
+        <v>83168</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>88283</v>
+        <v>87562</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>63249</v>
+        <v>63772</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>93307</v>
+        <v>93619</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>145540</v>
+        <v>143088</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>169132</v>
+        <v>168930</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>145095</v>
+        <v>142416</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>39458</v>
+        <v>38833</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>70107</v>
+        <v>71521</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>58712</v>
+        <v>58444</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>80280</v>
+        <v>80381</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>50193</v>
+        <v>51737</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>89757</v>
+        <v>89863</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>68682</v>
+        <v>68902</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>70873</v>
+        <v>71614</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>97559</v>
+        <v>99854</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>170464</v>
+        <v>172366</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>135211</v>
+        <v>136838</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>158284</v>
+        <v>157149</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>64799</v>
+        <v>64636</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>107381</v>
+        <v>109289</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>91345</v>
+        <v>89333</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>113624</v>
+        <v>113549</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>83070</v>
+        <v>85938</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>130382</v>
+        <v>129886</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>107914</v>
+        <v>107689</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>96788</v>
+        <v>97736</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>137995</v>
+        <v>139043</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>227154</v>
+        <v>228770</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>184039</v>
+        <v>185195</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>202771</v>
+        <v>201629</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>160697</v>
+        <v>160050</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>228588</v>
+        <v>225919</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>267232</v>
+        <v>261615</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>293804</v>
+        <v>297306</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>199109</v>
+        <v>203055</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>275145</v>
+        <v>275961</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>260278</v>
+        <v>263414</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>265265</v>
+        <v>266405</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>377736</v>
+        <v>378505</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>520243</v>
+        <v>522130</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>547519</v>
+        <v>545158</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>582589</v>
+        <v>581662</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>210098</v>
+        <v>211445</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>292571</v>
+        <v>290927</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>330032</v>
+        <v>328637</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>359566</v>
+        <v>362373</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>258916</v>
+        <v>260389</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>340459</v>
+        <v>343372</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>332822</v>
+        <v>333959</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>315516</v>
+        <v>316623</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>456861</v>
+        <v>454309</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>611249</v>
+        <v>612257</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>642923</v>
+        <v>645905</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>666803</v>
+        <v>663405</v>
       </c>
     </row>
     <row r="24">
